--- a/teaching/traditional_assets/database/data/brazil/brazil_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/brazil/brazil_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,107 +590,125 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.0482</v>
+      </c>
+      <c r="E2">
+        <v>-0.174</v>
+      </c>
+      <c r="F2">
+        <v>0.4379999999999999</v>
+      </c>
       <c r="G2">
-        <v>0.1938873891245661</v>
+        <v>0.3150157771468592</v>
       </c>
       <c r="H2">
-        <v>0.1938873891245661</v>
+        <v>0.3150157771468592</v>
       </c>
       <c r="I2">
-        <v>0.285486373211479</v>
+        <v>0.332939218447589</v>
       </c>
       <c r="J2">
-        <v>0.1987808401625966</v>
+        <v>0.2726723198355351</v>
       </c>
       <c r="K2">
-        <v>192.7</v>
+        <v>332.097</v>
       </c>
       <c r="L2">
-        <v>0.18578866178172</v>
+        <v>0.2500975246070775</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>89.148</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.004017231900646196</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.2684396426345315</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>89.148</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.004017231900646196</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.2684396426345315</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
-        <v>0</v>
+        <v>117.77</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.005307010824012907</v>
+      </c>
+      <c r="W2">
+        <v>0.2539386482565079</v>
       </c>
       <c r="X2">
-        <v>0.05485931439906104</v>
+        <v>0.04425857756532717</v>
+      </c>
+      <c r="Y2">
+        <v>0.2096800706911807</v>
       </c>
       <c r="Z2">
-        <v>24.08303108842397</v>
+        <v>0.2279855640791434</v>
       </c>
       <c r="AA2">
-        <v>4.787245153418849</v>
+        <v>0.03089534142904126</v>
       </c>
       <c r="AB2">
-        <v>0.0548498478644317</v>
+        <v>0.04278106991519641</v>
       </c>
       <c r="AC2">
-        <v>4.732395305554417</v>
+        <v>-0.01188572848615515</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>6624.4</v>
       </c>
       <c r="AE2">
-        <v>43.06766852526935</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>43.06766852526935</v>
+        <v>6624.4</v>
       </c>
       <c r="AG2">
-        <v>43.06766852526935</v>
+        <v>6506.629999999999</v>
       </c>
       <c r="AH2">
-        <v>0.0007170742022490031</v>
+        <v>0.229887769904011</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.8088696777659743</v>
       </c>
       <c r="AJ2">
-        <v>0.0007170742022490031</v>
+        <v>0.2267274095120815</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.8060810735474663</v>
       </c>
       <c r="AL2">
-        <v>18.1</v>
+        <v>12.1</v>
       </c>
       <c r="AM2">
-        <v>11.39</v>
+        <v>12.1</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>14.57513751375137</v>
       </c>
       <c r="AO2">
-        <v>16.3646408839779</v>
+        <v>36.53719008264463</v>
       </c>
       <c r="AP2">
-        <v>0.1368878918227365</v>
+        <v>14.31601760176017</v>
       </c>
       <c r="AQ2">
-        <v>26.00526777875329</v>
+        <v>36.53719008264463</v>
       </c>
     </row>
     <row r="3">
@@ -709,107 +727,241 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="F3">
+        <v>0.4379999999999999</v>
+      </c>
       <c r="G3">
-        <v>0.1938873891245661</v>
+        <v>0.3155314173644113</v>
       </c>
       <c r="H3">
-        <v>0.1938873891245661</v>
+        <v>0.3155314173644113</v>
       </c>
       <c r="I3">
-        <v>0.285486373211479</v>
+        <v>0.3334841970279852</v>
       </c>
       <c r="J3">
-        <v>0.1987808401625966</v>
+        <v>0.2703464725906693</v>
       </c>
       <c r="K3">
-        <v>192.7</v>
+        <v>331.8</v>
       </c>
       <c r="L3">
-        <v>0.18578866178172</v>
+        <v>0.2502828694274723</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>89</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.004013926973589262</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.2682338758288125</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>89</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.004013926973589262</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.2682338758288125</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>0</v>
+        <v>114.4</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.005159474671669794</v>
+      </c>
+      <c r="W3">
+        <v>0.4976004799040192</v>
       </c>
       <c r="X3">
-        <v>0.05485931439906104</v>
+        <v>0.04739588750110897</v>
+      </c>
+      <c r="Y3">
+        <v>0.4502045924029103</v>
       </c>
       <c r="Z3">
-        <v>24.08303108842397</v>
+        <v>0.2285610841005482</v>
       </c>
       <c r="AA3">
-        <v>4.787245153418849</v>
+        <v>0.06179068285808252</v>
       </c>
       <c r="AB3">
-        <v>0.0548498478644317</v>
+        <v>0.04444087220084745</v>
       </c>
       <c r="AC3">
-        <v>4.732395305554417</v>
+        <v>0.01734981065723507</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>6624.4</v>
       </c>
       <c r="AE3">
-        <v>43.06766852526935</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>43.06766852526935</v>
+        <v>6624.4</v>
       </c>
       <c r="AG3">
-        <v>43.06766852526935</v>
+        <v>6510</v>
       </c>
       <c r="AH3">
-        <v>0.0007170742022490031</v>
+        <v>0.2300362535246482</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.8110483979578094</v>
       </c>
       <c r="AJ3">
-        <v>0.0007170742022490031</v>
+        <v>0.2269652893022996</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0.8083642730309314</v>
       </c>
       <c r="AL3">
-        <v>18.1</v>
+        <v>12.1</v>
       </c>
       <c r="AM3">
-        <v>11.39</v>
+        <v>12.1</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>14.57513751375137</v>
       </c>
       <c r="AO3">
-        <v>16.3646408839779</v>
+        <v>36.53719008264463</v>
       </c>
       <c r="AP3">
-        <v>0.1368878918227365</v>
+        <v>14.32343234323432</v>
       </c>
       <c r="AQ3">
-        <v>26.00526777875329</v>
+        <v>36.53719008264463</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Banco Mercantil de Investimentos S.A. (BOVESPA:BMIN4)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Brokerage &amp; Investment Banking</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.0482</v>
+      </c>
+      <c r="E4">
+        <v>-0.174</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.297</v>
+      </c>
+      <c r="L4">
+        <v>0.1368663594470046</v>
+      </c>
+      <c r="M4">
+        <v>0.148</v>
+      </c>
+      <c r="N4">
+        <v>0.007956989247311827</v>
+      </c>
+      <c r="O4">
+        <v>0.4983164983164983</v>
+      </c>
+      <c r="P4">
+        <v>0.148</v>
+      </c>
+      <c r="Q4">
+        <v>0.007956989247311827</v>
+      </c>
+      <c r="R4">
+        <v>0.4983164983164983</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>3.37</v>
+      </c>
+      <c r="V4">
+        <v>0.1811827956989247</v>
+      </c>
+      <c r="W4">
+        <v>0.01027681660899654</v>
+      </c>
+      <c r="X4">
+        <v>0.04112126762954536</v>
+      </c>
+      <c r="Y4">
+        <v>-0.03084445102054882</v>
+      </c>
+      <c r="Z4">
+        <v>0.089817880794702</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.04112126762954536</v>
+      </c>
+      <c r="AC4">
+        <v>-0.04112126762954536</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>-3.37</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.2212738017071569</v>
+      </c>
+      <c r="AK4">
+        <v>-0.1808910359634998</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
